--- a/数据整理/stocks/A股/上证主板/603385-惠达卫浴.xlsx
+++ b/数据整理/stocks/A股/上证主板/603385-惠达卫浴.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006429</t>
+          <t>320011</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺安恒鑫混合</t>
+          <t>诺安中小盘精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.13</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2543</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001528</t>
+          <t>006429</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>诺安先进制造股票</t>
+          <t>诺安恒鑫混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.11</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>320011</t>
+          <t>001528</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺安中小盘精选混合</t>
+          <t>诺安先进制造股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>85.87</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>89.13</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.83</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -650,26 +710,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001528</t>
+          <t>320011</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺安先进制造股票</t>
+          <t>诺安中小盘精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>87.66</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.25</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3130</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -678,25 +748,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>320015</t>
+          <t>001528</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>诺安行业轮动混合</t>
+          <t>诺安先进制造股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>85.30</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.30</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -706,26 +786,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>320011</t>
+          <t>320015</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺安中小盘精选混合</t>
+          <t>诺安行业轮动混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>87.12</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.48</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -744,15 +834,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>86.72</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>7.22</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603385-惠达卫浴.xlsx
+++ b/数据整理/stocks/A股/上证主板/603385-惠达卫浴.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603385-惠达卫浴.xlsx
+++ b/数据整理/stocks/A股/上证主板/603385-惠达卫浴.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -868,7 +869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -879,17 +880,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -899,14 +920,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.63</v>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1889</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -915,13 +958,195 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.51</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603385-惠达卫浴.xlsx
+++ b/数据整理/stocks/A股/上证主板/603385-惠达卫浴.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1077,7 +1078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1088,17 +1089,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1108,14 +1129,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.39</v>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1530</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1124,14 +1167,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.63</v>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1140,13 +1205,173 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.51</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603385-惠达卫浴.xlsx
+++ b/数据整理/stocks/A股/上证主板/603385-惠达卫浴.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,205 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>320011</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>85.87</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2543</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006429</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>诺安恒鑫混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.13</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0875</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>4</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001528</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>诺安先进制造股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.11</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0850</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>4</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>320015</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>诺安行业轮动混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.13</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0831</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>4</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.51</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -683,7 +575,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -723,26 +615,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.12</t>
+          <t>84.64</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3130</t>
+          <t>0.1530</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -761,26 +653,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.66</t>
+          <t>87.44</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1044</t>
+          <t>0.0981</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -799,26 +691,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.30</t>
+          <t>85.68</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.30</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1040</t>
+          <t>0.0504</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -837,26 +729,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.72</t>
+          <t>85.51</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.22</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1040</t>
+          <t>0.0326</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1099,7 +991,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1139,26 +1031,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.64</t>
+          <t>87.12</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1530</t>
+          <t>0.3130</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1177,26 +1069,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.44</t>
+          <t>87.66</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0981</t>
+          <t>0.1044</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1215,26 +1107,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.68</t>
+          <t>85.30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>6.30</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0504</t>
+          <t>0.1040</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1253,26 +1145,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>85.51</t>
+          <t>86.72</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>7.22</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0326</t>
+          <t>0.1040</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1286,96 +1178,204 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2543</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.51</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>